--- a/src/main/resources/asserts/file/student.xlsx
+++ b/src/main/resources/asserts/file/student.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>学号</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t>软件C188</t>
+  </si>
+  <si>
+    <t>填写须知</t>
+  </si>
+  <si>
+    <t>所有信息必须准确填写，学号不可重复，专业名称必须对！！宿舍已“楼号#宿舍”号格式填写，填写完成后删除这些内容！！！</t>
   </si>
 </sst>
 </file>
@@ -193,12 +199,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <name val="宋体"/>
@@ -211,91 +217,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -307,9 +245,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,46 +365,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,187 +389,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,6 +586,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -595,11 +628,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,8 +661,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,21 +672,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,152 +691,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -821,6 +845,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -875,6 +908,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1170,19 +1208,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+      <selection activeCell="O51" sqref="O51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="7.66666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.6666666666667" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.2222222222222" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8888888888889" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="9" width="9" style="1" hidden="1"/>
     <col min="10" max="256" width="9" style="1" customWidth="1"/>
     <col min="257" max="16384" width="9" style="2"/>
@@ -1528,7 +1567,35 @@
         <v>11</v>
       </c>
     </row>
+    <row r="20" ht="45" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" ht="158" customHeight="1" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="5"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:L21"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
   <headerFooter/>

--- a/src/main/resources/asserts/file/student.xlsx
+++ b/src/main/resources/asserts/file/student.xlsx
@@ -191,7 +191,7 @@
     <t>填写须知</t>
   </si>
   <si>
-    <t>所有信息必须准确填写，学号不可重复，专业名称必须对！！宿舍已“楼号#宿舍”号格式填写，填写完成后删除这些内容！！！</t>
+    <t>所有信息必须准确填写，学号不可重复，专业名称必须对！！宿舍以“楼号#宿舍”号格式填写，填写完成后删除这些内容！！！</t>
   </si>
 </sst>
 </file>
@@ -199,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -227,6 +227,125 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -238,135 +357,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,49 +395,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -449,73 +557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,55 +575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,23 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,21 +609,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,8 +631,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +642,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,148 +691,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,8 +1210,8 @@
   <sheetPr/>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O51" sqref="O51"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
